--- a/medicine/Psychotrope/Miltonduff/Miltonduff.xlsx
+++ b/medicine/Psychotrope/Miltonduff/Miltonduff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Miltonduff est une distillerie de whisky située près du village d'Elgin dans le Speyside, en Écosse.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie Miltonduff a été construite en 1824 sur un terrain de l'abbaye bénédictine de Pluscarden. Aujourd'hui il n'y a plus de lien entre la distillerie et l'abbaye, mais le nom de cette dernière apparaît toujours sur les caisses de Miltonduff. Durant les années 1930 et 1970 la distillerie a fait l'objet d'importantes rénovations.
-Le whisky qui y est produit est un élément central des blends Ballantine's[1].
+Le whisky qui y est produit est un élément central des blends Ballantine's.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Embouteillage officiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Miltonduff 10-year-old, 40 Vol%
 Miltonduff 15-year-old, Special Distillery Bottling, 46 Vol%
